--- a/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>INQD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,13 +773,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,23 +810,26 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
+      <c r="L9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="3">
-        <v>100</v>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -848,23 +857,26 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
+      <c r="L10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -907,14 +920,14 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -925,8 +938,11 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -983,38 +1002,41 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,40 +1110,43 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>700</v>
       </c>
       <c r="N17" s="3">
         <v>700</v>
       </c>
       <c r="O17" s="3">
+        <v>700</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,40 +1157,43 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-700</v>
       </c>
       <c r="N18" s="3">
         <v>-700</v>
       </c>
       <c r="O18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,29 +1220,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1217,13 +1250,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,54 +1267,57 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-700</v>
       </c>
       <c r="N21" s="3">
         <v>-700</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1290,72 +1329,78 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
         <v>700</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,29 +1784,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1745,57 +1814,63 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1982,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="H41" s="3">
-        <v>100</v>
-      </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2000,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>100</v>
@@ -2009,10 +2095,13 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2144,11 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2161,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2172,23 +2270,26 @@
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2202,13 +2303,13 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
@@ -2217,22 +2318,25 @@
         <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
       <c r="P46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2257,8 +2361,8 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
+      <c r="K47" s="3">
+        <v>0</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>4</v>
@@ -2266,17 +2370,20 @@
       <c r="M47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2305,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2314,13 +2421,16 @@
         <v>100</v>
       </c>
       <c r="O48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,8 +2584,8 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2554,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
@@ -2572,19 +2697,22 @@
         <v>100</v>
       </c>
       <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,13 +2748,14 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -2634,13 +2764,13 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2678,67 +2811,70 @@
         <v>900</v>
       </c>
       <c r="G58" s="3">
+        <v>900</v>
+      </c>
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
       <c r="O58" s="3">
+        <v>200</v>
+      </c>
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1500</v>
       </c>
       <c r="G59" s="3">
         <v>1500</v>
       </c>
       <c r="H59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
       <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>400</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
@@ -2749,54 +2885,60 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2700</v>
       </c>
       <c r="G60" s="3">
         <v>2700</v>
       </c>
       <c r="H60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>300</v>
       </c>
       <c r="N66" s="3">
         <v>300</v>
       </c>
       <c r="O66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3655,10 +3853,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3667,13 +3865,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,16 +4105,19 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -3910,7 +4126,7 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -3919,25 +4135,28 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,34 +4173,35 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,19 +4312,22 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4113,25 +4342,28 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4336,10 +4581,10 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
@@ -4351,25 +4596,28 @@
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4424,16 +4675,16 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
@@ -4442,18 +4693,21 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
   <si>
     <t>INQD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -776,13 +788,22 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,23 +834,32 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,11 +890,11 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -875,8 +905,17 @@
       <c r="Q10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,26 +965,35 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1039,17 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1005,46 +1065,55 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
         <v>1400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1065,25 +1134,34 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,28 +1176,31 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1128,25 +1209,34 @@
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,19 +1244,19 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
@@ -1175,25 +1265,34 @@
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1310,11 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,46 +1322,55 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1267,140 +1378,167 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-1000</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>700</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-4400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1640,129 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-4400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-4400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1808,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1864,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1976,17 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,93 +1994,111 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>48200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-4400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2144,134 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-4400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2311,11 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2071,37 +2332,46 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2417,17 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2473,17 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2529,17 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2262,34 +2559,43 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2306,37 +2612,46 @@
         <v>0</v>
       </c>
       <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>100</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2364,26 +2679,35 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2415,22 +2739,31 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2809,17 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,22 +2921,31 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -2617,8 +2977,17 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +3033,17 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2682,37 +3060,46 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
-      </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>100</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
+        <v>300</v>
+      </c>
+      <c r="T54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,37 +3139,40 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2796,16 +3189,25 @@
       <c r="Q57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>900</v>
@@ -2814,28 +3216,28 @@
         <v>900</v>
       </c>
       <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
-      </c>
-      <c r="N58" s="3">
-        <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -2843,102 +3245,129 @@
       <c r="Q58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>200</v>
+      </c>
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+      <c r="T58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>50700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
       <c r="P59" s="3">
         <v>0</v>
       </c>
       <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>51700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G60" s="3">
         <v>4300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>200</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>300</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3413,17 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3637,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>51700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3827,17 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3939,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-64900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-14900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-13000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-12500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-12300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-11800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-11000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-9600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-8500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-8400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-7400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-5100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +4163,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-51700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="G76" s="3">
         <v>-4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-2700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-2500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-2100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O76" s="3">
-        <v>300</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
       </c>
       <c r="Q76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>300</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4275,134 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-48200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-4400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4420,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3856,25 +4453,34 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4750,73 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4834,11 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4200,8 +4863,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4209,8 +4872,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4221,8 +4884,17 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4996,17 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4345,25 +5035,34 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +5130,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5298,73 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
       <c r="J100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5410,17 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4678,36 +5434,45 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>INQD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,76 +678,91 @@
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,13 +812,25 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>100</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -843,23 +870,35 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,23 +938,35 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>0</v>
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S10" s="3">
-        <v>0</v>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +987,12 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,26 +1029,38 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1115,25 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>-100</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1074,11 +1153,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1087,25 +1166,37 @@
         <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="T14" s="3">
         <v>1400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1115,17 +1206,17 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1143,25 +1234,37 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1282,80 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>4700</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
-      </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="U17" s="3">
         <v>700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="V17" s="3">
         <v>700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,52 +1366,64 @@
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1444,12 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,55 +1457,67 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="H20" s="3">
+        <v>25500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-48200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>200</v>
       </c>
       <c r="O20" s="3">
         <v>-500</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>25400</v>
+      </c>
+      <c r="I21" s="3">
         <v>-48200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>-1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-3700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1436,109 +1595,133 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="S22" s="3">
         <v>700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="U22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="H23" s="3">
         <v>25400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="I23" s="3">
         <v>-48200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q23" s="3">
         <v>-1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="S23" s="3">
         <v>-4400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="W23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1776,20 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1844,156 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="H26" s="3">
         <v>25400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="I26" s="3">
         <v>-48200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="S26" s="3">
         <v>-4400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="W26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="H27" s="3">
         <v>25400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="I27" s="3">
         <v>-48200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="S27" s="3">
         <v>-4400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="W27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +2048,20 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2116,20 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2184,20 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2252,20 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2273,135 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>103600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>21700</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="I32" s="3">
         <v>48200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-200</v>
       </c>
       <c r="O32" s="3">
         <v>500</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S32" s="3">
+        <v>500</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="H33" s="3">
         <v>25400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="I33" s="3">
         <v>-48200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="S33" s="3">
         <v>-4400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="W33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2456,161 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="H35" s="3">
         <v>25400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="I35" s="3">
         <v>-48200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="S35" s="3">
         <v>-4400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="W35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2631,12 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2657,17 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2341,37 +2688,49 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2785,20 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2853,20 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2921,20 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2568,39 +2963,51 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2621,28 +3028,28 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
       </c>
       <c r="Q46" s="3">
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>100</v>
@@ -2650,8 +3057,20 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>200</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2688,37 +3107,49 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>300</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2748,33 +3179,45 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
         <v>100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="U48" s="3">
         <v>100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="V48" s="3">
         <v>100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="W48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="X48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
         <v>0</v>
@@ -2818,8 +3261,20 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3329,20 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3397,20 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3465,20 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3533,25 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3069,37 +3572,49 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="T54" s="3">
         <v>100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="U54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="W54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="X54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3635,12 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,49 +3661,53 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3198,176 +3721,224 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
+        <v>100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
         <v>600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>900</v>
       </c>
       <c r="J58" s="3">
         <v>900</v>
       </c>
       <c r="K58" s="3">
+        <v>900</v>
+      </c>
+      <c r="L58" s="3">
+        <v>900</v>
+      </c>
+      <c r="M58" s="3">
+        <v>900</v>
+      </c>
+      <c r="N58" s="3">
+        <v>900</v>
+      </c>
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="Q58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="S58" s="3">
         <v>700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>23200</v>
+        <v>500</v>
       </c>
       <c r="E59" s="3">
+        <v>121700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>147900</v>
+      </c>
+      <c r="G59" s="3">
+        <v>44300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>23500</v>
+      </c>
+      <c r="I59" s="3">
         <v>50700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
       <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>122100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>148400</v>
+      </c>
+      <c r="G60" s="3">
+        <v>44800</v>
+      </c>
+      <c r="H60" s="3">
         <v>23900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="I60" s="3">
         <v>51700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="J60" s="3">
         <v>5900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="L60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="S60" s="3">
         <v>1100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3993,20 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +4061,20 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +4129,20 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4197,20 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4265,88 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>122100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>148400</v>
+      </c>
+      <c r="G66" s="3">
+        <v>44800</v>
+      </c>
+      <c r="H66" s="3">
         <v>23900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>51700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="J66" s="3">
         <v>5900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="X66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4367,12 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4427,20 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4495,20 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4563,20 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4631,88 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-138500</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-164800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-61200</v>
+      </c>
+      <c r="H72" s="3">
         <v>-39400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-64900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-16600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-14900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-13000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-12500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-12300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-11800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-11000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-9600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-8500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-8400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="U72" s="3">
         <v>-5800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="V72" s="3">
         <v>-5100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="W72" s="3">
         <v>-4000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="X72" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4767,20 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4835,20 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4903,88 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-122100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-23900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>-51700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-5900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-4300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-2500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-2500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-2100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="R76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>-1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +5039,161 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>26300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-103600</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="H81" s="3">
         <v>25400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="I81" s="3">
         <v>-48200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="S81" s="3">
         <v>-4400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="W81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +5214,12 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4462,25 +5257,37 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5342,20 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5410,20 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5478,20 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5546,20 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +5614,25 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4774,49 +5641,61 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5716,12 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4872,8 +5755,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4884,8 +5767,8 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -4893,8 +5776,20 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5844,20 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5912,20 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5044,25 +5963,37 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +6014,12 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +6074,20 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +6142,20 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +6210,20 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +6278,25 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5322,49 +6305,61 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="V100" s="3">
         <v>700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,13 +6414,25 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5443,36 +6450,48 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>INQD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -824,13 +827,16 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>100</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -882,23 +888,26 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="3">
-        <v>0</v>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U9" s="3">
         <v>0</v>
       </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W9" s="3">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3">
         <v>100</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,23 +959,26 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
       </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,14 +1054,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,17 +1143,20 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1165,38 +1184,41 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1218,8 +1240,8 @@
       <c r="I15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1246,11 +1268,11 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,31 +1311,32 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>100</v>
@@ -1322,40 +1348,43 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
-      </c>
-      <c r="U17" s="3">
-        <v>700</v>
       </c>
       <c r="V17" s="3">
         <v>700</v>
       </c>
       <c r="W17" s="3">
+        <v>700</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,22 +1392,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-4700</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
@@ -1390,40 +1419,43 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-700</v>
       </c>
       <c r="V18" s="3">
         <v>-700</v>
       </c>
       <c r="W18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,53 +1490,53 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>121200</v>
+      </c>
+      <c r="F20" s="3">
         <v>26300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-103600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-21700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>25500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-48200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1511,13 +1544,16 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1561,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>116400</v>
+      </c>
+      <c r="F21" s="3">
         <v>26300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-103600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-21700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>25400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-48200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-3700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-700</v>
       </c>
       <c r="V21" s="3">
         <v>-700</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1607,20 +1646,20 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1632,96 +1671,102 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>700</v>
-      </c>
-      <c r="T22" s="3">
-        <v>100</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>116400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-103600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>25400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-48200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>116400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-103600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-21700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-48200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>116400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-103600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-21700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-48200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,53 +2342,53 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-121200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-26300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>103600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>21700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-25500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>48200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2327,81 +2396,87 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>116400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-103600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-21700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>25400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-48200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>116400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-103600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-21700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>25400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-48200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,7 +2756,7 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2700,16 +2786,16 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
-      </c>
-      <c r="P41" s="3">
-        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2718,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
@@ -2727,10 +2813,13 @@
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2975,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2986,23 +3084,26 @@
       <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,7 +3111,7 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3040,13 +3141,13 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R46" s="3">
         <v>100</v>
@@ -3055,22 +3156,25 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3119,8 +3223,8 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="S47" s="3">
+        <v>0</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -3128,17 +3232,20 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3">
         <v>300</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3151,8 +3258,8 @@
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3191,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -3200,13 +3307,16 @@
         <v>100</v>
       </c>
       <c r="W48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3219,8 +3329,8 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,7 +3679,7 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -3584,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R54" s="3">
         <v>100</v>
@@ -3602,19 +3727,22 @@
         <v>100</v>
       </c>
       <c r="U54" s="3">
+        <v>100</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,16 +3794,17 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -3683,19 +3813,19 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -3704,13 +3834,13 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3742,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3754,10 +3887,10 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>900</v>
       </c>
       <c r="K58" s="3">
         <v>900</v>
@@ -3772,91 +3905,94 @@
         <v>900</v>
       </c>
       <c r="O58" s="3">
+        <v>900</v>
+      </c>
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
-      </c>
-      <c r="U58" s="3">
-        <v>200</v>
       </c>
       <c r="V58" s="3">
         <v>200</v>
       </c>
       <c r="W58" s="3">
+        <v>200</v>
+      </c>
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>121700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>147900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>23500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>50700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1500</v>
       </c>
       <c r="O59" s="3">
         <v>1500</v>
       </c>
       <c r="P59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
       <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
@@ -3867,78 +4003,84 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>122100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>148400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>44800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>23900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>51700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2600</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2700</v>
       </c>
       <c r="O60" s="3">
         <v>2700</v>
       </c>
       <c r="P60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>122100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>148400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>44800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>51700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>300</v>
       </c>
       <c r="V66" s="3">
         <v>300</v>
       </c>
       <c r="W66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="X66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-22100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-138500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-164800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-61200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-39400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-64900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-8400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-4000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-122100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-148400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-44800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-23900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-51700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-5900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>116400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-103600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-21700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>25400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-48200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5269,11 +5467,11 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
@@ -5281,13 +5479,16 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>500</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5635,7 +5851,7 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
         <v>0</v>
@@ -5653,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5668,7 +5884,7 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -5677,25 +5893,28 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>-1000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5767,11 +5987,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5975,25 +6204,28 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,17 +6532,20 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6317,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -6326,10 +6571,10 @@
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
@@ -6341,25 +6586,28 @@
         <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>200</v>
+      </c>
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,17 +6674,20 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -6462,17 +6713,17 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6480,18 +6731,21 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>INQD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -830,13 +838,19 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>100</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -891,23 +905,29 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,23 +982,29 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3">
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1057,8 +1085,8 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
@@ -1066,8 +1094,8 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,23 +1180,29 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,38 +1227,44 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1243,11 +1289,11 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1271,14 +1317,14 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,37 +1364,39 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1351,40 +1405,46 @@
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>200</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,28 +1452,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4700</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1422,40 +1482,46 @@
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,70 +1558,76 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G20" s="3">
         <v>121200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>26300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-103600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-21700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>25500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-48200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,70 +1635,76 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G21" s="3">
         <v>116400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>26300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-103600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-21700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>25400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-48200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-3700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1649,24 +1729,24 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1674,99 +1754,111 @@
         <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>700</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>116400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>26300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-103600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-21700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>25400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-48200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-4400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>116400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>26300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-103600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-21700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>25400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-48200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-4400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>116400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>26300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-103600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-21700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>25400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-48200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-4400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,141 +2482,153 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>600</v>
+      </c>
+      <c r="G32" s="3">
         <v>-121200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-26300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>103600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>21700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-25500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>48200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>116400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>26300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-103600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-21700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>25400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-48200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-4400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>116400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>26300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-103600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-21700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>25400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-48200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-4400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,22 +2919,24 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2789,37 +2963,43 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,13 +3223,19 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -3076,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -3087,11 +3285,11 @@
       <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3099,25 +3297,31 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3144,37 +3348,43 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>100</v>
-      </c>
-      <c r="S46" s="3">
-        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3226,40 +3436,46 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
         <v>300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3301,36 +3517,42 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
       </c>
       <c r="X48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="3">
         <v>200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,22 +3916,28 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -3712,16 +3964,16 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>200</v>
-      </c>
-      <c r="R54" s="3">
-        <v>100</v>
-      </c>
-      <c r="S54" s="3">
-        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>100</v>
@@ -3730,19 +3982,25 @@
         <v>100</v>
       </c>
       <c r="V54" s="3">
+        <v>100</v>
+      </c>
+      <c r="W54" s="3">
+        <v>100</v>
+      </c>
+      <c r="X54" s="3">
         <v>200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,49 +4066,49 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>300</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="N57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -3866,22 +4128,28 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -3890,13 +4158,13 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
         <v>600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>900</v>
       </c>
       <c r="M58" s="3">
         <v>900</v>
@@ -3908,37 +4176,43 @@
         <v>900</v>
       </c>
       <c r="P58" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>900</v>
+      </c>
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>700</v>
       </c>
       <c r="U58" s="3">
+        <v>600</v>
+      </c>
+      <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
-      </c>
-      <c r="W58" s="3">
-        <v>200</v>
-      </c>
-      <c r="X58" s="3">
-        <v>300</v>
       </c>
       <c r="Y58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3946,59 +4220,59 @@
         <v>0</v>
       </c>
       <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>121700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>147900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>44300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>23500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>50700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
@@ -4006,10 +4280,16 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4017,70 +4297,76 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
+        <v>100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>122100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>148400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>44800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>23900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>51700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4744,14 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4443,70 +4759,76 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
+        <v>100</v>
+      </c>
+      <c r="F66" s="3">
+        <v>100</v>
+      </c>
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>122100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>148400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>44800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>23900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>51700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2600</v>
       </c>
       <c r="O66" s="3">
         <v>2800</v>
       </c>
       <c r="P66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-22100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-138500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-164800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-61200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-39400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-64900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-14900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-13000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-12500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-12300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-11000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-8400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-7400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-5800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-5100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-4000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>100</v>
+      </c>
+      <c r="G76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-122100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-148400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-44800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-23900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-51700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-5900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-4300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2700</v>
       </c>
       <c r="P76" s="3">
         <v>-2500</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>116400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>26300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-103600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-21700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>25400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-48200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-4400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5470,25 +5868,31 @@
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>500</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,23 +6270,29 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -5872,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -5881,40 +6315,46 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
       </c>
       <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5990,14 +6432,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6207,25 +6667,31 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,23 +7021,29 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6565,22 +7057,22 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
@@ -6589,25 +7081,31 @@
         <v>200</v>
       </c>
       <c r="T100" s="3">
+        <v>200</v>
+      </c>
+      <c r="U100" s="3">
+        <v>200</v>
+      </c>
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,23 +7175,29 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6716,36 +7220,42 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>INQD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -844,13 +848,16 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>100</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -911,23 +918,26 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W9" s="3">
-        <v>0</v>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z9" s="3">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
         <v>100</v>
       </c>
-      <c r="AA9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,23 +998,26 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W10" s="3">
-        <v>0</v>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1091,14 +1105,14 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,26 +1203,29 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1233,38 +1253,41 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,8 +1318,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1323,11 +1346,11 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
         <v>100</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,40 +1392,41 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4700</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
@@ -1411,40 +1438,43 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
+        <v>300</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
-      </c>
-      <c r="X17" s="3">
-        <v>700</v>
       </c>
       <c r="Y17" s="3">
         <v>700</v>
       </c>
       <c r="Z17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,31 +1482,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4700</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
@@ -1488,40 +1518,43 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-3200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-700</v>
       </c>
       <c r="Y18" s="3">
         <v>-700</v>
       </c>
       <c r="Z18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,59 +1595,59 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>121200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>26300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-103600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-21700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>25500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-48200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1621,13 +1655,16 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1672,79 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>116400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>26300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-103600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-21700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>25400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-48200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-3700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-700</v>
       </c>
       <c r="Y21" s="3">
         <v>-700</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1735,20 +1775,20 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1760,105 +1800,111 @@
         <v>0</v>
       </c>
       <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>700</v>
-      </c>
-      <c r="W22" s="3">
-        <v>100</v>
       </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
       <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>116400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-103600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-48200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-4400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>116400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>26300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-103600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-21700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-48200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-4400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>116400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>26300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-103600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-21700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>25400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-48200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-4400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,59 +2555,59 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-121200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-26300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>103600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>21700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-25500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>48200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2545,90 +2615,96 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>116400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>26300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-103600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-21700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>25400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-48200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>116400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>26300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-103600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-21700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>25400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-48200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,16 +3007,17 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
@@ -2939,7 +3026,7 @@
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2969,16 +3056,16 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
-      </c>
-      <c r="S41" s="3">
-        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2987,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
@@ -2996,10 +3083,13 @@
         <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,31 +3165,34 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,7 +3337,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3280,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3291,23 +3390,26 @@
       <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,7 +3417,7 @@
         <v>400</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -3324,7 +3426,7 @@
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -3354,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U46" s="3">
         <v>100</v>
@@ -3369,22 +3471,25 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3442,8 +3547,8 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>0</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>4</v>
@@ -3451,17 +3556,20 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z47" s="3">
         <v>300</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3523,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
@@ -3532,13 +3640,16 @@
         <v>100</v>
       </c>
       <c r="Z48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,31 +3885,34 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,16 +4045,19 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>200</v>
@@ -3940,7 +4066,7 @@
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -3970,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U54" s="3">
         <v>100</v>
@@ -3988,19 +4114,22 @@
         <v>100</v>
       </c>
       <c r="X54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y54" s="3">
         <v>200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4072,10 +4203,10 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -4084,19 +4215,19 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
+        <v>300</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -4105,13 +4236,13 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4145,14 +4279,14 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -4164,10 +4298,10 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
+        <v>100</v>
+      </c>
+      <c r="M58" s="3">
         <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>900</v>
       </c>
       <c r="N58" s="3">
         <v>900</v>
@@ -4182,37 +4316,40 @@
         <v>900</v>
       </c>
       <c r="R58" s="3">
+        <v>900</v>
+      </c>
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
-      </c>
-      <c r="X58" s="3">
-        <v>200</v>
       </c>
       <c r="Y58" s="3">
         <v>200</v>
       </c>
       <c r="Z58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4226,56 +4363,56 @@
         <v>0</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>121700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>147900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1500</v>
       </c>
       <c r="R59" s="3">
         <v>1500</v>
       </c>
       <c r="S59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
       <c r="X59" s="3">
         <v>0</v>
       </c>
@@ -4286,10 +4423,13 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4303,70 +4443,73 @@
         <v>100</v>
       </c>
       <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>122100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>148400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>44800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>23900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>51700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2700</v>
       </c>
       <c r="R60" s="3">
         <v>2700</v>
       </c>
       <c r="S60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4765,70 +4923,73 @@
         <v>100</v>
       </c>
       <c r="G66" s="3">
+        <v>100</v>
+      </c>
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>122100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>148400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>44800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
-      </c>
-      <c r="X66" s="3">
-        <v>300</v>
       </c>
       <c r="Y66" s="3">
         <v>300</v>
       </c>
       <c r="Z66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AA66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-138500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-164800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-61200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-39400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-64900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-13000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-8500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-7400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-4000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>300</v>
-      </c>
-      <c r="E76" s="3">
-        <v>100</v>
       </c>
       <c r="F76" s="3">
         <v>100</v>
       </c>
       <c r="G76" s="3">
+        <v>100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-122100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-148400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-44800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-23900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-51700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>116400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>26300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-103600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-21700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>25400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-48200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5874,11 +6073,11 @@
         <v>0</v>
       </c>
       <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
-        <v>0</v>
-      </c>
       <c r="X83" s="3">
         <v>0</v>
       </c>
@@ -5886,13 +6085,16 @@
         <v>0</v>
       </c>
       <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
         <v>500</v>
       </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,25 +6490,28 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -6312,13 +6529,13 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -6327,7 +6544,7 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
@@ -6336,25 +6553,28 @@
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6438,11 +6659,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6673,25 +6903,28 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,26 +7270,29 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -7063,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -7072,10 +7318,10 @@
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
@@ -7087,25 +7333,28 @@
         <v>200</v>
       </c>
       <c r="V100" s="3">
+        <v>200</v>
+      </c>
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,26 +7430,29 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -7226,17 +7478,17 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7244,18 +7496,21 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>INQD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -851,13 +854,16 @@
         <v>0</v>
       </c>
       <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
         <v>100</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -921,23 +927,26 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="3">
-        <v>0</v>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA9" s="3">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3">
         <v>100</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,23 +1010,26 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="3">
-        <v>0</v>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>0</v>
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,14 +1121,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,29 +1222,32 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1256,38 +1275,41 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1321,8 +1343,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1349,11 +1371,11 @@
         <v>0</v>
       </c>
       <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
         <v>100</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,43 +1418,44 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4700</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1441,40 +1467,43 @@
         <v>100</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
+        <v>300</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>3200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>700</v>
       </c>
       <c r="Z17" s="3">
         <v>700</v>
       </c>
       <c r="AA17" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,34 +1511,34 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4700</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1521,40 +1550,43 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
       <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
       <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X18" s="3">
         <v>-3200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-700</v>
       </c>
       <c r="Z18" s="3">
         <v>-700</v>
       </c>
       <c r="AA18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,59 +1631,59 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>121200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>26300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-103600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-21700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-48200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1658,13 +1691,16 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,79 +1708,82 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>116400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>26300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-103600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-21700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-48200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-3700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1600</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-700</v>
       </c>
       <c r="Z21" s="3">
         <v>-700</v>
       </c>
       <c r="AA21" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1778,20 +1817,20 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1803,108 +1842,114 @@
         <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>700</v>
-      </c>
-      <c r="X22" s="3">
-        <v>100</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
       </c>
       <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>116400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-103600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>25400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-48200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>116400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-103600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-21700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-48200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>116400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-103600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-21700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-48200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-4400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,59 +2627,59 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-121200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-26300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>103600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>21700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>48200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2618,93 +2687,99 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>116400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-103600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-21700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>25400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-48200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-4400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>116400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-103600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-21700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>25400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-48200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-4400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3017,10 +3103,10 @@
         <v>200</v>
       </c>
       <c r="E41" s="3">
+        <v>200</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
-      </c>
-      <c r="F41" s="3">
-        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
@@ -3029,7 +3115,7 @@
         <v>200</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -3059,16 +3145,16 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
-      </c>
-      <c r="T41" s="3">
-        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -3077,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
         <v>100</v>
@@ -3086,10 +3172,13 @@
         <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,17 +3257,20 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3194,8 +3286,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,19 +3423,22 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3382,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3393,23 +3491,26 @@
       <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3420,7 +3521,7 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -3429,7 +3530,7 @@
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -3459,13 +3560,13 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V46" s="3">
         <v>100</v>
@@ -3474,22 +3575,25 @@
         <v>100</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>100</v>
       </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3550,8 +3654,8 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
@@ -3559,17 +3663,20 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3">
         <v>300</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3634,7 +3741,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3643,13 +3750,16 @@
         <v>100</v>
       </c>
       <c r="AA48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,16 +4004,19 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>100</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -3914,8 +4033,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,19 +4170,22 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>600</v>
+      </c>
+      <c r="E54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>200</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
@@ -4069,7 +4194,7 @@
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>0</v>
@@ -4099,13 +4224,13 @@
         <v>0</v>
       </c>
       <c r="S54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V54" s="3">
         <v>100</v>
@@ -4117,19 +4242,22 @@
         <v>100</v>
       </c>
       <c r="Y54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4206,10 +4336,10 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -4218,19 +4348,19 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -4239,13 +4369,13 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4268,8 +4398,11 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4282,14 +4415,14 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -4301,10 +4434,10 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
         <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>900</v>
       </c>
       <c r="O58" s="3">
         <v>900</v>
@@ -4319,42 +4452,45 @@
         <v>900</v>
       </c>
       <c r="S58" s="3">
+        <v>900</v>
+      </c>
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>200</v>
       </c>
       <c r="Z58" s="3">
         <v>200</v>
       </c>
       <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E59" s="3">
         <v>0</v>
@@ -4366,56 +4502,56 @@
         <v>0</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>121700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>147900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1500</v>
       </c>
       <c r="S59" s="3">
         <v>1500</v>
       </c>
       <c r="T59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
-      </c>
       <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>400</v>
       </c>
-      <c r="X59" s="3">
-        <v>0</v>
-      </c>
       <c r="Y59" s="3">
         <v>0</v>
       </c>
@@ -4426,15 +4562,18 @@
         <v>0</v>
       </c>
       <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -4446,70 +4585,73 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
+        <v>100</v>
+      </c>
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>122100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>148400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>44800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>23900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>51700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2600</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2700</v>
       </c>
       <c r="S60" s="3">
         <v>2700</v>
       </c>
       <c r="T60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,13 +5062,16 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -4926,70 +5083,73 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
+        <v>100</v>
+      </c>
+      <c r="I66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>122100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>148400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>300</v>
       </c>
       <c r="Z66" s="3">
         <v>300</v>
       </c>
       <c r="AA66" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AB66" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-138500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-164800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-61200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-39400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-64900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-8500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-8400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-7400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300</v>
-      </c>
-      <c r="F76" s="3">
-        <v>100</v>
       </c>
       <c r="G76" s="3">
         <v>100</v>
       </c>
       <c r="H76" s="3">
+        <v>100</v>
+      </c>
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-122100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-148400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-44800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-23900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-51700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-5900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-4300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>116400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-103600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-21700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>25400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-48200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-4400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6076,11 +6274,11 @@
         <v>0</v>
       </c>
       <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
       <c r="Y83" s="3">
         <v>0</v>
       </c>
@@ -6088,13 +6286,16 @@
         <v>0</v>
       </c>
       <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
         <v>500</v>
       </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,19 +6718,19 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -6532,13 +6748,13 @@
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -6547,7 +6763,7 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
@@ -6556,25 +6772,28 @@
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-1000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6662,11 +6882,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,31 +7069,34 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6906,25 +7135,28 @@
         <v>0</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,29 +7515,32 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -7312,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -7321,10 +7566,10 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>200</v>
@@ -7336,25 +7581,28 @@
         <v>200</v>
       </c>
       <c r="W100" s="3">
+        <v>200</v>
+      </c>
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,29 +7681,32 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -7481,17 +7732,17 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7499,18 +7750,21 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/INQD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="92">
   <si>
     <t>INQD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -857,13 +865,19 @@
         <v>0</v>
       </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
         <v>100</v>
       </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -930,23 +944,29 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>4</v>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3">
         <v>100</v>
       </c>
-      <c r="AC9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,23 +1033,29 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>4</v>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
-      <c r="AC10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1152,8 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>4</v>
@@ -1133,8 +1161,8 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-      <c r="AA12" s="3">
-        <v>0</v>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,35 +1259,41 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1278,61 +1318,67 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>1400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>300</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1346,11 +1392,11 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1374,14 +1420,14 @@
         <v>0</v>
       </c>
       <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
         <v>100</v>
       </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,8 +1471,10 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1428,40 +1482,40 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4700</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1470,40 +1524,46 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z17" s="3">
         <v>3200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,40 +1571,40 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4700</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1553,40 +1613,46 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-200</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1634,73 +1702,79 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>121200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>26300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-103600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-21700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>25500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-48200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-500</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,87 +1782,93 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="F21" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="G21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>116400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>26300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-103600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-21700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>25400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-48200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>4</v>
@@ -1820,24 +1900,24 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1845,28 +1925,34 @@
         <v>0</v>
       </c>
       <c r="W22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="3">
         <v>100</v>
       </c>
       <c r="Z22" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1874,82 +1960,88 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>116400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>26300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-103600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-21700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>25400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-48200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,8 +2212,14 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -2123,82 +2227,88 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>116400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>26300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-103600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-21700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>25400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-48200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2206,82 +2316,88 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>116400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>26300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-103600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-21700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>25400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-48200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2630,73 +2770,79 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-121200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-26300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>103600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>21700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-25500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>48200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>500</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2704,82 +2850,88 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>116400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>26300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-103600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-21700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>25400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-48200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,8 +3013,14 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2870,170 +3028,182 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>116400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>26300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-103600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-21700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>25400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-48200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,34 +3266,36 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -3148,37 +3322,43 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
         <v>100</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,23 +3440,29 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3289,11 +3475,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3343,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3435,17 +3633,17 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -3483,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3494,11 +3692,11 @@
       <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
+      <c r="Y45" s="3">
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
@@ -3506,37 +3704,43 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="H46" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>200</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -3563,37 +3767,43 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>100</v>
       </c>
       <c r="X46" s="3">
         <v>100</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z46" s="3">
         <v>100</v>
       </c>
       <c r="AA46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="3">
         <v>100</v>
       </c>
       <c r="AC46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3657,26 +3867,32 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="3">
         <v>300</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3744,45 +3960,51 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3">
         <v>100</v>
       </c>
       <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
         <v>200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4018,11 +4258,11 @@
       <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>100</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -4036,11 +4276,11 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,8 +4419,14 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4185,22 +4437,22 @@
         <v>500</v>
       </c>
       <c r="F54" s="3">
+        <v>600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>200</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -4227,16 +4479,16 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
         <v>200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>200</v>
-      </c>
-      <c r="V54" s="3">
-        <v>100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>100</v>
       </c>
       <c r="X54" s="3">
         <v>100</v>
@@ -4245,19 +4497,25 @@
         <v>100</v>
       </c>
       <c r="Z54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB54" s="3">
         <v>200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>300</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,16 +4578,18 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -4339,49 +4601,49 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>500</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>100</v>
-      </c>
-      <c r="W57" s="3">
-        <v>100</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4401,8 +4663,14 @@
       <c r="AC57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4418,17 +4686,17 @@
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -4437,13 +4705,13 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>900</v>
       </c>
       <c r="Q58" s="3">
         <v>900</v>
@@ -4455,49 +4723,55 @@
         <v>900</v>
       </c>
       <c r="T58" s="3">
+        <v>900</v>
+      </c>
+      <c r="U58" s="3">
+        <v>900</v>
+      </c>
+      <c r="V58" s="3">
         <v>1000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
-      </c>
-      <c r="V58" s="3">
-        <v>700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>600</v>
       </c>
       <c r="X58" s="3">
         <v>700</v>
       </c>
       <c r="Y58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>200</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>300</v>
       </c>
       <c r="AC58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
@@ -4505,59 +4779,59 @@
         <v>0</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>121700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>147900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>44300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>23500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>50700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Y59" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>0</v>
-      </c>
       <c r="AA59" s="3">
         <v>0</v>
       </c>
@@ -4565,21 +4839,27 @@
         <v>0</v>
       </c>
       <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>300</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>100</v>
-      </c>
-      <c r="F60" s="3">
-        <v>100</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -4588,70 +4868,76 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>122100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>148400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>44800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>23900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>51700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,19 +5375,25 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>200</v>
-      </c>
-      <c r="E66" s="3">
-        <v>100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -5086,70 +5402,76 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
+        <v>100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>100</v>
+      </c>
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>122100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>148400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>44800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>23900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>51700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2600</v>
       </c>
       <c r="S66" s="3">
         <v>2800</v>
       </c>
       <c r="T66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,8 +5853,14 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5520,82 +5868,88 @@
         <v>-27100</v>
       </c>
       <c r="E72" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-27100</v>
+      </c>
+      <c r="G72" s="3">
         <v>-26600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-26000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-24800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-23700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-22100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-138500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-164800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-61200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-39400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-64900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-16600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-13000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-12300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-11000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-9600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-8500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-7400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-4000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F76" s="3">
         <v>300</v>
       </c>
       <c r="G76" s="3">
+        <v>400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>300</v>
+      </c>
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-122100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-148400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-44800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-23900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-51700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-5900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-2700</v>
       </c>
       <c r="T76" s="3">
         <v>-2500</v>
       </c>
       <c r="U76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="W76" s="3">
         <v>-2100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,96 +6387,108 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -6106,82 +6496,88 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>116400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>26300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-103600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-21700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>25400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-48200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-4400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6277,25 +6675,31 @@
         <v>0</v>
       </c>
       <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>0</v>
-      </c>
       <c r="AA83" s="3">
         <v>0</v>
       </c>
       <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
         <v>500</v>
       </c>
-      <c r="AC83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,35 +7137,41 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -6751,7 +7185,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -6760,40 +7194,46 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-200</v>
       </c>
       <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,19 +7263,21 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -6885,14 +7327,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
+      <c r="Y91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,22 +7526,28 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -7098,11 +7558,11 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -7138,25 +7598,31 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-300</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,35 +8004,41 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
       </c>
       <c r="G100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -7560,22 +8052,22 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
@@ -7584,25 +8076,31 @@
         <v>200</v>
       </c>
       <c r="X100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7693,26 +8197,26 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7735,36 +8239,42 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
